--- a/src/test/testdata/TestData.xlsx
+++ b/src/test/testdata/TestData.xlsx
@@ -5,17 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amira\eclipse-workspace\EA\src\test\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amira\eclipse-workspace\TestYouWithMavenTestNg\src\test\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8616" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8616"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
-    <sheet name="Locations" sheetId="2" r:id="rId2"/>
-    <sheet name="Request" sheetId="3" r:id="rId3"/>
-    <sheet name="Location" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,126 +24,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>MobileNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amira </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>TestCase</t>
   </si>
   <si>
-    <t>Amiraaa</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Towing destination Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestCase </t>
-  </si>
-  <si>
-    <t>01_valid location</t>
-  </si>
-  <si>
-    <t>02_invalid location</t>
-  </si>
-  <si>
-    <t>Towing Pickup Location</t>
-  </si>
-  <si>
-    <t>Mousa ibn Noseir St, العبور، محافظة القاهرة‬ 11828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-login with valid normal user </t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-login with invalid mobile number </t>
-  </si>
-  <si>
-    <t>111633332215&amp;</t>
-  </si>
-  <si>
     <t>Amira</t>
   </si>
   <si>
-    <t>1116332215&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03-edit Mobile Nuber while login </t>
-  </si>
-  <si>
-    <t xml:space="preserve">valid PickUp Location </t>
-  </si>
-  <si>
-    <t xml:space="preserve">03_valid location </t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>30.23939311111111111&amp;</t>
-  </si>
-  <si>
-    <t>31.4832722222222&amp;</t>
-  </si>
-  <si>
-    <t>30.239298333333333333&amp;</t>
-  </si>
-  <si>
-    <t>31.48378833444444444&amp;</t>
-  </si>
-  <si>
-    <t>55.391855555555&amp;</t>
-  </si>
-  <si>
-    <t>31.4837886666666666&amp;</t>
-  </si>
-  <si>
-    <t>04_Fujirah Valid location</t>
-  </si>
-  <si>
-    <t>Fujirah valid PickUp Location</t>
-  </si>
-  <si>
-    <t>38H3+R3G - Unnamed Road - Fujairah - United Arab Emirates</t>
-  </si>
-  <si>
-    <t>05_RTA Valid location</t>
-  </si>
-  <si>
-    <t>RTA valid pick up inside dubai</t>
-  </si>
-  <si>
-    <t>2HC3+M2Q Lahbab, Dubai - United Arab Emirates</t>
-  </si>
-  <si>
-    <t>1021132355&amp;</t>
-  </si>
-  <si>
-    <t>2G9V+6VC Lahbab, Dubai - United Arab Emirates</t>
+    <t>password</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>dfdfdfdf</t>
+  </si>
+  <si>
+    <t>02-login with invalid credintail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -176,22 +77,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,198 +374,28 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>